--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>490200.0677657999</v>
+        <v>581683.2470024647</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12496676.879328</v>
+        <v>12535336.02914634</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7127088.055546224</v>
+        <v>7622616.185043055</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9236977.777003661</v>
+        <v>8997248.300753195</v>
       </c>
     </row>
     <row r="11">
@@ -671,13 +673,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U2" t="n">
-        <v>57.08569488870531</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -735,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.308154846006516</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>36.39469600159752</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -798,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>122.007262779587</v>
+        <v>5.86420895776283</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>11.36529914368134</v>
       </c>
       <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
         <v>153.8072380324131</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>187.5255871663199</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -981,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>69.88304676416928</v>
       </c>
       <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="U6" t="n">
-        <v>187.5255871663199</v>
-      </c>
-      <c r="V6" t="n">
-        <v>187.5255871663199</v>
-      </c>
-      <c r="W6" t="n">
-        <v>165.1725371760944</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1054,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1069,10 +1071,10 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318196</v>
+        <v>114.2442101164526</v>
       </c>
       <c r="I7" t="n">
-        <v>112.2642569757388</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V8" t="n">
-        <v>199.3865381917998</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.17372043046394</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>28.91812342832925</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>138.2613113589522</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V10" t="n">
-        <v>213.0377323930406</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1375,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>85.17289288835035</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>32.97988876732276</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396202</v>
@@ -1467,7 +1469,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.75769145492336</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471482</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>85.17289288835035</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1670,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>94.81275980261485</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1783,7 +1785,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1825,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>203.1977700471482</v>
       </c>
       <c r="X16" t="n">
-        <v>150.2062474346973</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>184.6448939492126</v>
+        <v>162.6828958164083</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1856,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>19.48923120238945</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>31.80057351588399</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2090,10 +2092,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2132,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>57.92518451681089</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2175,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>111.9187566128687</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -2257,7 +2259,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2324,16 +2326,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>126.7498226612768</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>201.6086852141638</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2488,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -2530,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>111.4258155259064</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2558,19 +2560,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>209.6931219609845</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>145.2477902017521</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>125.3146872343259</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>13.02719212039609</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2795,22 +2797,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>173.5578851713661</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>190.3602036960991</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2953,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>6.380068175847874</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>6.380068175848154</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3035,19 +3037,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>85.17289288835215</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>168.1158122680975</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>6.380068175847845</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>149.2419515106229</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3275,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>72.5717110591501</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3314,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>168.1158122680963</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>62.09581973348946</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>24.2829462521859</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>246.2586752105457</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3560,7 +3562,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>306.7874773947158</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>77.31354443380498</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>214.6649597713303</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3749,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>116.9650399396266</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3797,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>123.9724767792987</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>151.8512960864984</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3955,16 +3957,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3983,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>101.9220711724777</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3992,7 +3994,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -4028,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>126.5388824951704</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4144,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>29.40349276484397</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,10 +4188,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>331.1605361513811</v>
+        <v>393.841617006275</v>
       </c>
       <c r="C2" t="n">
-        <v>331.1605361513811</v>
+        <v>393.841617006275</v>
       </c>
       <c r="D2" t="n">
-        <v>331.1605361513811</v>
+        <v>393.841617006275</v>
       </c>
       <c r="E2" t="n">
-        <v>331.1605361513811</v>
+        <v>393.841617006275</v>
       </c>
       <c r="F2" t="n">
-        <v>331.1605361513811</v>
+        <v>393.841617006275</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1605361513811</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678489</v>
@@ -4346,34 +4348,34 @@
         <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201471</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S2" t="n">
-        <v>578.2426392372652</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T2" t="n">
-        <v>388.8228542207804</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="U2" t="n">
-        <v>331.1605361513811</v>
+        <v>393.841617006275</v>
       </c>
       <c r="V2" t="n">
-        <v>331.1605361513811</v>
+        <v>393.841617006275</v>
       </c>
       <c r="W2" t="n">
-        <v>331.1605361513811</v>
+        <v>393.841617006275</v>
       </c>
       <c r="X2" t="n">
-        <v>331.1605361513811</v>
+        <v>393.841617006275</v>
       </c>
       <c r="Y2" t="n">
-        <v>331.1605361513811</v>
+        <v>393.841617006275</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.76436616683844</v>
+        <v>192.7966468059543</v>
       </c>
       <c r="C3" t="n">
-        <v>51.76436616683844</v>
+        <v>18.34361752482732</v>
       </c>
       <c r="D3" t="n">
-        <v>51.76436616683844</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>51.76436616683844</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>51.76436616683844</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024242</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476351</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652798</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198761</v>
+        <v>571.6362168389238</v>
       </c>
       <c r="T3" t="n">
-        <v>598.8192732198761</v>
+        <v>571.6362168389238</v>
       </c>
       <c r="U3" t="n">
-        <v>598.8192732198761</v>
+        <v>571.6362168389238</v>
       </c>
       <c r="V3" t="n">
-        <v>598.8192732198761</v>
+        <v>571.6362168389238</v>
       </c>
       <c r="W3" t="n">
-        <v>598.8192732198761</v>
+        <v>382.2164318224391</v>
       </c>
       <c r="X3" t="n">
-        <v>409.3994882033913</v>
+        <v>382.2164318224391</v>
       </c>
       <c r="Y3" t="n">
-        <v>219.9797031869065</v>
+        <v>192.7966468059543</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>612.5614882768594</v>
+        <v>189.6143138020703</v>
       </c>
       <c r="C4" t="n">
-        <v>612.5614882768594</v>
+        <v>189.6143138020703</v>
       </c>
       <c r="D4" t="n">
-        <v>612.5614882768594</v>
+        <v>189.6143138020703</v>
       </c>
       <c r="E4" t="n">
-        <v>612.5614882768594</v>
+        <v>189.6143138020703</v>
       </c>
       <c r="F4" t="n">
-        <v>489.3218289035392</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="G4" t="n">
-        <v>320.6330054664542</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>165.6494995757273</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818523</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>89.66773767220388</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>262.5553157873389</v>
+        <v>279.6026869745584</v>
       </c>
       <c r="M4" t="n">
-        <v>448.2056470819957</v>
+        <v>465.2530182692151</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242519</v>
+        <v>587.3641452287293</v>
       </c>
       <c r="O4" t="n">
-        <v>634.372383960802</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846275</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R4" t="n">
-        <v>612.5614882768594</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S4" t="n">
-        <v>612.5614882768594</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T4" t="n">
-        <v>612.5614882768594</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U4" t="n">
-        <v>612.5614882768594</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V4" t="n">
-        <v>612.5614882768594</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="W4" t="n">
-        <v>612.5614882768594</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="X4" t="n">
-        <v>612.5614882768594</v>
+        <v>371.26277863231</v>
       </c>
       <c r="Y4" t="n">
-        <v>612.5614882768594</v>
+        <v>371.26277863231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>393.841617006275</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="C5" t="n">
-        <v>393.841617006275</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D5" t="n">
-        <v>393.841617006275</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E5" t="n">
-        <v>393.841617006275</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F5" t="n">
-        <v>204.4218319897903</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G5" t="n">
         <v>15.00204697330559</v>
@@ -4565,7 +4567,7 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K5" t="n">
         <v>80.81213159058939</v>
@@ -4574,10 +4576,10 @@
         <v>191.8743094079184</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O5" t="n">
         <v>649.4845259985582</v>
@@ -4592,7 +4594,7 @@
         <v>738.6222485201467</v>
       </c>
       <c r="S5" t="n">
-        <v>583.2614020227597</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="T5" t="n">
         <v>583.2614020227597</v>
@@ -4604,13 +4606,13 @@
         <v>393.841617006275</v>
       </c>
       <c r="W5" t="n">
-        <v>393.841617006275</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="X5" t="n">
-        <v>393.841617006275</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="Y5" t="n">
-        <v>393.841617006275</v>
+        <v>204.4218319897903</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.00204697330559</v>
+        <v>462.9105711424193</v>
       </c>
       <c r="C6" t="n">
-        <v>15.00204697330559</v>
+        <v>462.9105711424193</v>
       </c>
       <c r="D6" t="n">
-        <v>15.00204697330559</v>
+        <v>462.9105711424193</v>
       </c>
       <c r="E6" t="n">
-        <v>15.00204697330559</v>
+        <v>303.6731161369638</v>
       </c>
       <c r="F6" t="n">
-        <v>15.00204697330559</v>
+        <v>303.6731161369638</v>
       </c>
       <c r="G6" t="n">
-        <v>15.00204697330559</v>
+        <v>166.133934959413</v>
       </c>
       <c r="H6" t="n">
-        <v>15.00204697330559</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I6" t="n">
         <v>15.00204697330559</v>
@@ -4656,7 +4658,7 @@
         <v>338.7690911140243</v>
       </c>
       <c r="N6" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O6" t="n">
         <v>649.2101578476347</v>
@@ -4668,28 +4670,28 @@
         <v>750.1023486652795</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652795</v>
+        <v>652.330356158904</v>
       </c>
       <c r="T6" t="n">
-        <v>560.6825636487947</v>
+        <v>652.330356158904</v>
       </c>
       <c r="U6" t="n">
-        <v>371.26277863231</v>
+        <v>652.330356158904</v>
       </c>
       <c r="V6" t="n">
-        <v>181.8429936158252</v>
+        <v>652.330356158904</v>
       </c>
       <c r="W6" t="n">
-        <v>15.00204697330559</v>
+        <v>462.9105711424193</v>
       </c>
       <c r="X6" t="n">
-        <v>15.00204697330559</v>
+        <v>462.9105711424193</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.00204697330559</v>
+        <v>462.9105711424193</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>750.1023486652795</v>
+        <v>615.9383389575114</v>
       </c>
       <c r="C7" t="n">
-        <v>750.1023486652795</v>
+        <v>447.0021560296045</v>
       </c>
       <c r="D7" t="n">
-        <v>599.9857092529437</v>
+        <v>447.0021560296045</v>
       </c>
       <c r="E7" t="n">
-        <v>452.0726156705506</v>
+        <v>299.0890624472114</v>
       </c>
       <c r="F7" t="n">
-        <v>452.0726156705506</v>
+        <v>299.0890624472114</v>
       </c>
       <c r="G7" t="n">
-        <v>283.3837922334656</v>
+        <v>130.4002390101264</v>
       </c>
       <c r="H7" t="n">
-        <v>128.4002863427387</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I7" t="n">
         <v>15.00204697330559</v>
@@ -4747,28 +4749,28 @@
         <v>750.1023486652795</v>
       </c>
       <c r="R7" t="n">
-        <v>750.1023486652795</v>
+        <v>615.9383389575114</v>
       </c>
       <c r="S7" t="n">
-        <v>750.1023486652795</v>
+        <v>615.9383389575114</v>
       </c>
       <c r="T7" t="n">
-        <v>750.1023486652795</v>
+        <v>615.9383389575114</v>
       </c>
       <c r="U7" t="n">
-        <v>750.1023486652795</v>
+        <v>615.9383389575114</v>
       </c>
       <c r="V7" t="n">
-        <v>750.1023486652795</v>
+        <v>615.9383389575114</v>
       </c>
       <c r="W7" t="n">
-        <v>750.1023486652795</v>
+        <v>615.9383389575114</v>
       </c>
       <c r="X7" t="n">
-        <v>750.1023486652795</v>
+        <v>615.9383389575114</v>
       </c>
       <c r="Y7" t="n">
-        <v>750.1023486652795</v>
+        <v>615.9383389575114</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1203.454193039681</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="C8" t="n">
-        <v>1203.454193039681</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="D8" t="n">
-        <v>845.18849443293</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="E8" t="n">
-        <v>459.4002418346858</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="F8" t="n">
-        <v>459.4002418346858</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>21.03371160678492</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>80.81213159058942</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="V8" t="n">
-        <v>1967.059283276572</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="W8" t="n">
-        <v>1967.059283276572</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="X8" t="n">
-        <v>1593.593525015492</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="Y8" t="n">
-        <v>1203.454193039681</v>
+        <v>560.6825636487949</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>698.9667499039549</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C9" t="n">
-        <v>524.5137206228279</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D9" t="n">
-        <v>375.5793109615767</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E9" t="n">
-        <v>216.3418559561212</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F9" t="n">
-        <v>69.80729798300612</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G9" t="n">
-        <v>69.80729798300612</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H9" t="n">
-        <v>69.80729798300612</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562314</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104394</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789486</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P9" t="n">
-        <v>1988.031189642584</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q9" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R9" t="n">
-        <v>2168.459826904653</v>
+        <v>722.9192922843278</v>
       </c>
       <c r="S9" t="n">
-        <v>2029.495166406371</v>
+        <v>722.9192922843278</v>
       </c>
       <c r="T9" t="n">
-        <v>2000.28494072119</v>
+        <v>533.499507267843</v>
       </c>
       <c r="U9" t="n">
-        <v>1772.183350854454</v>
+        <v>344.0797222513582</v>
       </c>
       <c r="V9" t="n">
-        <v>1537.031242622711</v>
+        <v>154.6599372348735</v>
       </c>
       <c r="W9" t="n">
-        <v>1282.79388589451</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X9" t="n">
-        <v>1074.942385688977</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y9" t="n">
-        <v>867.182086924023</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>640.7351551420207</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C10" t="n">
-        <v>471.7989722141139</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D10" t="n">
-        <v>471.7989722141139</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E10" t="n">
-        <v>471.7989722141139</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F10" t="n">
-        <v>471.7989722141139</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G10" t="n">
-        <v>303.6661428091322</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H10" t="n">
-        <v>153.6259293129249</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J10" t="n">
-        <v>58.69630920174229</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
-        <v>213.7203003246704</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L10" t="n">
-        <v>467.6240706728881</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M10" t="n">
-        <v>745.7191196640783</v>
+        <v>373.5399563830974</v>
       </c>
       <c r="N10" t="n">
-        <v>1022.636306385108</v>
+        <v>471.6341805242517</v>
       </c>
       <c r="O10" t="n">
-        <v>1262.397853152952</v>
+        <v>634.3723839608019</v>
       </c>
       <c r="P10" t="n">
-        <v>1444.034594271086</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="Q10" t="n">
-        <v>1486.355378693647</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R10" t="n">
-        <v>1486.355378693647</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S10" t="n">
-        <v>1486.355378693647</v>
+        <v>583.26140202276</v>
       </c>
       <c r="T10" t="n">
-        <v>1486.355378693647</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="U10" t="n">
-        <v>1486.355378693647</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="V10" t="n">
-        <v>1271.165750013808</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W10" t="n">
-        <v>1271.165750013808</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X10" t="n">
-        <v>1043.17619911579</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y10" t="n">
-        <v>822.3836199722605</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796256</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C11" t="n">
-        <v>552.807938939214</v>
+        <v>552.807938939213</v>
       </c>
       <c r="D11" t="n">
-        <v>552.807938939214</v>
+        <v>194.5422403324625</v>
       </c>
       <c r="E11" t="n">
-        <v>552.807938939214</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F11" t="n">
-        <v>141.8220341496064</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G11" t="n">
         <v>108.5090151927147</v>
@@ -5036,10 +5038,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
@@ -5057,34 +5059,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943747</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="12">
@@ -5115,16 +5117,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5133,7 +5135,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P12" t="n">
         <v>2407.41198488674</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218342</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218342</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218342</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218342</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
         <v>111.6347488791189</v>
@@ -5203,46 +5205,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q13" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621292</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251686</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271513</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.0249360836212</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1976.204921733553</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>552.807938939213</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>194.5422403324625</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X14" t="n">
-        <v>1976.204921733553</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y14" t="n">
-        <v>1976.204921733553</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5370,13 +5372,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5388,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5431,49 +5433,49 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T16" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U16" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V16" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W16" t="n">
-        <v>1645.778206672847</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X16" t="n">
         <v>1494.054724415577</v>
@@ -5489,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1232.150970528558</v>
+        <v>1144.044138553435</v>
       </c>
       <c r="C17" t="n">
-        <v>1232.150970528558</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="D17" t="n">
-        <v>1232.150970528558</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5540,25 +5542,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U17" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V17" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W17" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X17" t="n">
-        <v>1808.800296392464</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y17" t="n">
-        <v>1418.660964416652</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="18">
@@ -5583,10 +5585,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
         <v>66.5121164321834</v>
@@ -5595,10 +5597,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5607,13 +5609,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>644.3338566427974</v>
+        <v>561.7003711548115</v>
       </c>
       <c r="C19" t="n">
-        <v>644.3338566427974</v>
+        <v>392.7641882269046</v>
       </c>
       <c r="D19" t="n">
-        <v>644.3338566427974</v>
+        <v>392.7641882269046</v>
       </c>
       <c r="E19" t="n">
-        <v>624.6477645191717</v>
+        <v>244.8510946445115</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>244.8510946445115</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H19" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I19" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T19" t="n">
-        <v>1705.527932658019</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U19" t="n">
-        <v>1416.425065783662</v>
+        <v>1326.594608541189</v>
       </c>
       <c r="V19" t="n">
-        <v>1161.740577577775</v>
+        <v>1071.910120335302</v>
       </c>
       <c r="W19" t="n">
-        <v>872.3234075408147</v>
+        <v>782.4929502983416</v>
       </c>
       <c r="X19" t="n">
-        <v>644.3338566427974</v>
+        <v>782.4929502983416</v>
       </c>
       <c r="Y19" t="n">
-        <v>644.3338566427974</v>
+        <v>561.7003711548115</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1179.52858457759</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C20" t="n">
-        <v>810.5660676371781</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D20" t="n">
-        <v>452.3003690304276</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E20" t="n">
-        <v>66.5121164321834</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F20" t="n">
-        <v>66.5121164321834</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G20" t="n">
         <v>66.5121164321834</v>
@@ -5750,13 +5752,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001388</v>
@@ -5765,10 +5767,10 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
@@ -5780,22 +5782,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>3267.095534218452</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U20" t="n">
-        <v>3013.565057492288</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V20" t="n">
-        <v>2682.502170148718</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W20" t="n">
-        <v>2329.733514878603</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X20" t="n">
-        <v>1956.267756617523</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y20" t="n">
-        <v>1566.128424641711</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I21" t="n">
         <v>66.5121164321834</v>
@@ -5832,10 +5834,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,31 +5849,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
         <v>1109.759191501176</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>590.8070661251691</v>
+        <v>2489.924953962484</v>
       </c>
       <c r="C22" t="n">
-        <v>590.8070661251691</v>
+        <v>2320.988771034577</v>
       </c>
       <c r="D22" t="n">
-        <v>590.8070661251691</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E22" t="n">
-        <v>590.8070661251691</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F22" t="n">
-        <v>477.7578170212613</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959802</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H22" t="n">
-        <v>163.837793613838</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.778206672847</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T22" t="n">
-        <v>1424.011591242373</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U22" t="n">
-        <v>1134.908724368016</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V22" t="n">
-        <v>880.2242361621296</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W22" t="n">
-        <v>590.8070661251691</v>
+        <v>3120.355548834272</v>
       </c>
       <c r="X22" t="n">
-        <v>590.8070661251691</v>
+        <v>2892.365997936254</v>
       </c>
       <c r="Y22" t="n">
-        <v>590.8070661251691</v>
+        <v>2671.573418792724</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2005.586939522201</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C23" t="n">
-        <v>1636.624422581789</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D23" t="n">
-        <v>1278.358723975039</v>
+        <v>194.542240332463</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>194.542240332463</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>194.542240332463</v>
       </c>
       <c r="G23" t="n">
-        <v>66.5121164321834</v>
+        <v>194.542240332463</v>
       </c>
       <c r="H23" t="n">
         <v>66.5121164321834</v>
@@ -5999,13 +6001,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
@@ -6014,25 +6016,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V23" t="n">
-        <v>3121.960685029207</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W23" t="n">
-        <v>2769.192029759092</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X23" t="n">
-        <v>2395.726271498012</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y23" t="n">
-        <v>2005.586939522201</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="24">
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>826.5851666348717</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C25" t="n">
-        <v>657.6489837069648</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D25" t="n">
-        <v>507.5323442946291</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E25" t="n">
-        <v>359.619250712236</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F25" t="n">
-        <v>212.7293032143256</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G25" t="n">
         <v>212.7293032143256</v>
@@ -6178,19 +6180,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U25" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V25" t="n">
-        <v>1525.640352400089</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W25" t="n">
-        <v>1236.223182363129</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X25" t="n">
-        <v>1008.233631465111</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y25" t="n">
-        <v>1008.233631465111</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1859.132475219475</v>
+        <v>1091.323932370578</v>
       </c>
       <c r="C26" t="n">
-        <v>1490.169958279064</v>
+        <v>722.3614154301667</v>
       </c>
       <c r="D26" t="n">
-        <v>1278.358723975039</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520489</v>
+        <v>3178.890882011441</v>
       </c>
       <c r="U26" t="n">
-        <v>3009.337405520489</v>
+        <v>2925.360405285277</v>
       </c>
       <c r="V26" t="n">
-        <v>3009.337405520489</v>
+        <v>2594.297517941706</v>
       </c>
       <c r="W26" t="n">
-        <v>3009.337405520489</v>
+        <v>2241.528862671592</v>
       </c>
       <c r="X26" t="n">
-        <v>2635.871647259409</v>
+        <v>1868.063104410512</v>
       </c>
       <c r="Y26" t="n">
-        <v>2245.732315283597</v>
+        <v>1477.9237724347</v>
       </c>
     </row>
     <row r="27">
@@ -6294,13 +6296,13 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228006</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>339.3097953702104</v>
+        <v>2405.758056700422</v>
       </c>
       <c r="C28" t="n">
-        <v>339.3097953702104</v>
+        <v>2236.821873772515</v>
       </c>
       <c r="D28" t="n">
-        <v>339.3097953702104</v>
+        <v>2086.705234360179</v>
       </c>
       <c r="E28" t="n">
-        <v>339.3097953702104</v>
+        <v>1938.792140777786</v>
       </c>
       <c r="F28" t="n">
-        <v>339.3097953702104</v>
+        <v>1791.902193279876</v>
       </c>
       <c r="G28" t="n">
-        <v>212.7293032143257</v>
+        <v>1624.199356654595</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218343</v>
+        <v>1477.982169872453</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J28" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K28" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L28" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M28" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N28" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O28" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P28" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q28" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S28" t="n">
-        <v>1735.608663915319</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T28" t="n">
-        <v>1513.842048484845</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U28" t="n">
-        <v>1513.842048484845</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V28" t="n">
-        <v>1259.157560278958</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W28" t="n">
-        <v>969.7403902419976</v>
+        <v>3036.188651572209</v>
       </c>
       <c r="X28" t="n">
-        <v>741.7508393439803</v>
+        <v>2808.199100674192</v>
       </c>
       <c r="Y28" t="n">
-        <v>520.9582602004501</v>
+        <v>2587.406521530662</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1822.632236038042</v>
+        <v>1736.589769957181</v>
       </c>
       <c r="C29" t="n">
-        <v>1453.669719097631</v>
+        <v>1367.627253016769</v>
       </c>
       <c r="D29" t="n">
-        <v>1278.358723975039</v>
+        <v>1009.361554410019</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>1009.361554410019</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>598.3756496204112</v>
       </c>
       <c r="G29" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
         <v>66.5121164321834</v>
@@ -6464,13 +6466,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060171</v>
@@ -6491,22 +6493,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V29" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W29" t="n">
-        <v>2972.837166339056</v>
+        <v>2513.328941997114</v>
       </c>
       <c r="X29" t="n">
-        <v>2599.371408077976</v>
+        <v>2513.328941997114</v>
       </c>
       <c r="Y29" t="n">
-        <v>2209.232076102164</v>
+        <v>2123.189610021303</v>
       </c>
     </row>
     <row r="30">
@@ -6540,13 +6542,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6595,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>241.8928126690276</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C31" t="n">
-        <v>72.95662974112065</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D31" t="n">
         <v>66.5121164321834</v>
@@ -6646,25 +6648,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088493</v>
+        <v>1920.850034779555</v>
       </c>
       <c r="T31" t="n">
-        <v>1705.527932658019</v>
+        <v>1699.083419349081</v>
       </c>
       <c r="U31" t="n">
-        <v>1416.425065783662</v>
+        <v>1409.980552474725</v>
       </c>
       <c r="V31" t="n">
-        <v>1161.740577577775</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W31" t="n">
-        <v>872.3234075408147</v>
+        <v>865.8788942318774</v>
       </c>
       <c r="X31" t="n">
-        <v>644.3338566427974</v>
+        <v>637.8893433338601</v>
       </c>
       <c r="Y31" t="n">
-        <v>423.5412774992673</v>
+        <v>417.09676419033</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2175.400891308158</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C32" t="n">
-        <v>1806.438374367746</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D32" t="n">
-        <v>1448.172675760996</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.384423162752</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F32" t="n">
-        <v>651.398518373144</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G32" t="n">
-        <v>236.3260682181405</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
@@ -6725,25 +6727,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V32" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W32" t="n">
-        <v>3325.605821609171</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X32" t="n">
-        <v>2952.140063348092</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y32" t="n">
-        <v>2562.00073137228</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="33">
@@ -6771,7 +6773,7 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I33" t="n">
         <v>66.51211643218342</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>241.8928126690276</v>
+        <v>2489.924953962486</v>
       </c>
       <c r="C34" t="n">
-        <v>72.95662974112065</v>
+        <v>2320.988771034579</v>
       </c>
       <c r="D34" t="n">
-        <v>66.51211643218343</v>
+        <v>2170.872131622243</v>
       </c>
       <c r="E34" t="n">
-        <v>66.51211643218343</v>
+        <v>2022.95903803985</v>
       </c>
       <c r="F34" t="n">
-        <v>66.51211643218343</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218343</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218343</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J34" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K34" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L34" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M34" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N34" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O34" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P34" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q34" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R34" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S34" t="n">
-        <v>1927.294548088493</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T34" t="n">
-        <v>1705.527932658019</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="U34" t="n">
-        <v>1416.425065783662</v>
+        <v>2671.573418792726</v>
       </c>
       <c r="V34" t="n">
-        <v>1161.740577577775</v>
+        <v>2671.573418792726</v>
       </c>
       <c r="W34" t="n">
-        <v>872.3234075408147</v>
+        <v>2671.573418792726</v>
       </c>
       <c r="X34" t="n">
-        <v>644.3338566427974</v>
+        <v>2671.573418792726</v>
       </c>
       <c r="Y34" t="n">
-        <v>423.5412774992673</v>
+        <v>2671.573418792726</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2005.586939522201</v>
+        <v>1252.833343223196</v>
       </c>
       <c r="C35" t="n">
-        <v>1636.624422581789</v>
+        <v>883.8708262827843</v>
       </c>
       <c r="D35" t="n">
-        <v>1278.358723975039</v>
+        <v>525.6051276760338</v>
       </c>
       <c r="E35" t="n">
-        <v>892.5704713767946</v>
+        <v>139.8168750777896</v>
       </c>
       <c r="F35" t="n">
-        <v>481.5845665871869</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G35" t="n">
         <v>66.5121164321834</v>
@@ -6935,10 +6937,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6962,25 +6964,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W35" t="n">
-        <v>3155.791869823214</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X35" t="n">
-        <v>2782.326111562134</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y35" t="n">
-        <v>2392.186779586323</v>
+        <v>1639.433183287318</v>
       </c>
     </row>
     <row r="36">
@@ -7014,13 +7016,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1007.446783179745</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="C37" t="n">
-        <v>838.5106002518381</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="D37" t="n">
-        <v>688.3939608395024</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="E37" t="n">
-        <v>540.4808672571093</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959802</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="H37" t="n">
-        <v>163.837793613838</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L37" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N37" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O37" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P37" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088493</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T37" t="n">
-        <v>1927.294548088493</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="U37" t="n">
-        <v>1927.294548088493</v>
+        <v>2533.219997888694</v>
       </c>
       <c r="V37" t="n">
-        <v>1927.294548088493</v>
+        <v>2278.535509682807</v>
       </c>
       <c r="W37" t="n">
-        <v>1637.877378051532</v>
+        <v>1989.118339645846</v>
       </c>
       <c r="X37" t="n">
-        <v>1409.887827153515</v>
+        <v>1964.590111108285</v>
       </c>
       <c r="Y37" t="n">
-        <v>1189.095248009985</v>
+        <v>1743.797531964755</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1594.601034732593</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="C38" t="n">
-        <v>1225.638517792182</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="D38" t="n">
-        <v>867.3728191854311</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="E38" t="n">
-        <v>481.5845665871869</v>
+        <v>1183.313506713635</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>772.327601924027</v>
       </c>
       <c r="G38" t="n">
-        <v>66.5121164321834</v>
+        <v>357.2551517690235</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
         <v>66.5121164321834</v>
@@ -7199,25 +7201,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U38" t="n">
-        <v>2961.784676410101</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V38" t="n">
-        <v>2630.721789066531</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W38" t="n">
-        <v>2277.953133796416</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="X38" t="n">
-        <v>1904.487375535336</v>
+        <v>2345.840931351812</v>
       </c>
       <c r="Y38" t="n">
-        <v>1594.601034732593</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="39">
@@ -7306,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>385.564938772426</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C40" t="n">
-        <v>216.6287558445191</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D40" t="n">
         <v>66.5121164321834</v>
@@ -7357,25 +7359,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1849.200058761417</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1560.097191887061</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V40" t="n">
-        <v>1305.412703681174</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W40" t="n">
-        <v>1015.995533644213</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X40" t="n">
-        <v>788.0059827461959</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y40" t="n">
-        <v>567.2134036026657</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2345.167438673965</v>
+        <v>1754.744438482647</v>
       </c>
       <c r="C41" t="n">
-        <v>1976.204921733553</v>
+        <v>1385.781921542235</v>
       </c>
       <c r="D41" t="n">
-        <v>1617.939223126803</v>
+        <v>1027.516222935484</v>
       </c>
       <c r="E41" t="n">
-        <v>1232.150970528558</v>
+        <v>641.7279703372401</v>
       </c>
       <c r="F41" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
         <v>108.5090151927147</v>
@@ -7415,19 +7417,19 @@
         <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7436,25 +7438,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.60582160917</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W41" t="n">
-        <v>3325.60582160917</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X41" t="n">
-        <v>2952.14006334809</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y41" t="n">
-        <v>2562.000731372279</v>
+        <v>2141.344278546768</v>
       </c>
     </row>
     <row r="42">
@@ -7491,10 +7493,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>361.3151575124868</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="C43" t="n">
-        <v>361.3151575124868</v>
+        <v>613.5567673704356</v>
       </c>
       <c r="D43" t="n">
-        <v>361.3151575124868</v>
+        <v>463.4401279580999</v>
       </c>
       <c r="E43" t="n">
-        <v>213.4020639300938</v>
+        <v>463.4401279580999</v>
       </c>
       <c r="F43" t="n">
-        <v>66.5121164321834</v>
+        <v>463.4401279580999</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I43" t="n">
         <v>66.5121164321834</v>
@@ -7591,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T43" t="n">
-        <v>1513.842048484845</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U43" t="n">
-        <v>1224.739181610489</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V43" t="n">
-        <v>1224.739181610489</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W43" t="n">
-        <v>935.322011573528</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="X43" t="n">
-        <v>707.3324606755107</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="Y43" t="n">
-        <v>486.5398815319805</v>
+        <v>782.4929502983425</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2062.330773118627</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C44" t="n">
-        <v>1693.368256178216</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D44" t="n">
-        <v>1335.102557571465</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
         <v>108.5090151927147</v>
@@ -7646,25 +7648,25 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
@@ -7676,22 +7678,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>3119.628073993392</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="V44" t="n">
-        <v>2788.565186649821</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="W44" t="n">
-        <v>2435.796531379707</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X44" t="n">
-        <v>2062.330773118627</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y44" t="n">
-        <v>2062.330773118627</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="45">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>410.1326375818733</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="C46" t="n">
-        <v>410.1326375818733</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="D46" t="n">
-        <v>410.1326375818733</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="E46" t="n">
-        <v>410.1326375818733</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="F46" t="n">
-        <v>380.4321398396066</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143256</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672847</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T46" t="n">
-        <v>1645.778206672847</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="U46" t="n">
-        <v>1356.675339798491</v>
+        <v>2639.355643067495</v>
       </c>
       <c r="V46" t="n">
-        <v>1101.990851592604</v>
+        <v>2384.671154861609</v>
       </c>
       <c r="W46" t="n">
-        <v>812.5736815556431</v>
+        <v>2095.253984824648</v>
       </c>
       <c r="X46" t="n">
-        <v>812.5736815556431</v>
+        <v>1867.26443392663</v>
       </c>
       <c r="Y46" t="n">
-        <v>591.781102412113</v>
+        <v>1646.4718547831</v>
       </c>
     </row>
   </sheetData>
@@ -8137,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>89.52419948887527</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457084</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>99.67938739116971</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8474,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>87.8329683006352</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721433</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8611,16 +8613,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L10" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N10" t="n">
-        <v>171.8177168444618</v>
+        <v>75.41988959484667</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9264,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9474,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -22559,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399024</v>
+        <v>129.3682389399025</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988683</v>
+        <v>25.91829388988691</v>
       </c>
       <c r="U2" t="n">
-        <v>194.083565676325</v>
+        <v>85.99672338893586</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22623,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>144.1369107186322</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22638,7 +22640,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>99.76909336417782</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
@@ -22671,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22686,13 +22688,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715752</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098441</v>
+        <v>18.15710861098449</v>
       </c>
     </row>
     <row r="4">
@@ -22702,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22714,19 +22716,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>23.41378524334421</v>
+        <v>139.5568390651684</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -22762,13 +22764,13 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750814</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>38.18406822271729</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22784,7 +22786,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046877</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22793,10 +22795,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>219.3504585753916</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>225.5722460637382</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H5" t="n">
         <v>316.8938261062223</v>
@@ -22832,10 +22834,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>4.968575157639975</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>59.63664302379365</v>
       </c>
       <c r="U5" t="n">
         <v>63.64367339871046</v>
@@ -22844,7 +22846,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22869,19 +22871,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>79.88719792678035</v>
       </c>
       <c r="T6" t="n">
-        <v>7.884010625681384</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U6" t="n">
-        <v>38.33818124377106</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>45.2749999831054</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>86.52244598482517</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22942,10 +22944,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -22957,10 +22959,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>39.18946071536701</v>
       </c>
       <c r="I7" t="n">
-        <v>13.4429627951279</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
         <v>23.43375830553084</v>
@@ -22987,7 +22989,7 @@
         <v>3.343082173845801</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>206.7802557954962</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>217.561304487386</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708302</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092505</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>63.6436733987104</v>
       </c>
       <c r="V8" t="n">
-        <v>128.3657202783351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23148,25 +23150,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>163.8450948824345</v>
+        <v>7.884010625681327</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>38.338181243771</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>45.27499998310535</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>113.4336718019674</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23176,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23191,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>41.60771861940171</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>36.19408632378017</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>98.73949432713036</v>
       </c>
       <c r="V10" t="n">
-        <v>39.09991093078744</v>
+        <v>64.61205615750808</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23261,16 +23263,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>296.7574771839114</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>377.9418368861307</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.0742887270139</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>83.32522828944278</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>296.7574771839114</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23558,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>274.9183408758542</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -23713,10 +23715,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>83.32522828944278</v>
       </c>
       <c r="X16" t="n">
-        <v>75.50340795433985</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>198.088947714268</v>
+        <v>220.0509458470723</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>126.9447314441797</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>134.2252347431442</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23978,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,13 +24022,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>145.9927856228092</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>33.50229141006257</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24212,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>167.8579417260437</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -24254,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>126.1435732559711</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24418,10 +24420,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>140.7118277979216</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24446,19 +24448,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>144.9899196596984</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24491,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>58.67017993786803</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>40.71112102470234</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>83.32522828944201</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,16 +24651,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24683,22 +24685,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>181.1251564493169</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>220.5615219573544</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,10 +24733,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24743,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>142.2354048423645</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24886,7 +24888,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>183.3889571555937</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24923,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>296.7574771839096</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>126.491952119223</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>142.2354048423645</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>136.96988669499</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25163,10 +25165,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>334.3043346825613</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -25202,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>181.1251564493167</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25312,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>83.32522828944178</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>201.4267091368513</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>48.34908917677475</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -25448,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>79.45046126133781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>16.142136056966</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25597,10 +25599,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>142.2354048423642</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>168.0688818921502</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25637,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>289.9110058020848</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -25685,13 +25687,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55.85950340263855</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>14.1745121725298</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>280.0082988997841</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25916,22 +25918,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>124.4562894637316</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26032,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>116.0175552580873</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26074,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>471997.7018764837</v>
+        <v>471997.7018764836</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>471997.7018764836</v>
+        <v>471997.7018764837</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>731289.1033889868</v>
+        <v>471997.7018764836</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>879911.6497810576</v>
+        <v>879911.6497810574</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>879911.6497810575</v>
+        <v>879911.6497810574</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>879911.6497810574</v>
+        <v>879911.6497810575</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>879911.6497810576</v>
+        <v>879911.6497810574</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>879911.6497810575</v>
+        <v>879911.6497810574</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>879911.6497810575</v>
+        <v>879911.6497810574</v>
       </c>
     </row>
   </sheetData>
@@ -26314,37 +26316,37 @@
         <v>171419.5356187815</v>
       </c>
       <c r="C2" t="n">
-        <v>171419.5356187814</v>
+        <v>171419.5356187815</v>
       </c>
       <c r="D2" t="n">
-        <v>265569.88022318</v>
+        <v>171419.5356187815</v>
       </c>
       <c r="E2" t="n">
+        <v>323947.2440223743</v>
+      </c>
+      <c r="F2" t="n">
+        <v>323947.2440223743</v>
+      </c>
+      <c r="G2" t="n">
+        <v>323947.2440223742</v>
+      </c>
+      <c r="H2" t="n">
+        <v>323947.2440223743</v>
+      </c>
+      <c r="I2" t="n">
         <v>323947.2440223744</v>
-      </c>
-      <c r="F2" t="n">
-        <v>323947.2440223745</v>
-      </c>
-      <c r="G2" t="n">
-        <v>323947.2440223743</v>
-      </c>
-      <c r="H2" t="n">
-        <v>323947.2440223746</v>
-      </c>
-      <c r="I2" t="n">
-        <v>323947.2440223746</v>
       </c>
       <c r="J2" t="n">
         <v>323947.2440223744</v>
       </c>
       <c r="K2" t="n">
-        <v>323947.2440223745</v>
+        <v>323947.2440223743</v>
       </c>
       <c r="L2" t="n">
         <v>323947.2440223744</v>
       </c>
       <c r="M2" t="n">
-        <v>323947.2440223745</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="N2" t="n">
         <v>323947.2440223744</v>
@@ -26353,7 +26355,7 @@
         <v>323947.2440223744</v>
       </c>
       <c r="P2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223743</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>371558.524948766</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.7457669099</v>
+        <v>627134.6436336671</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854471</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>89743.37813127041</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608608</v>
+        <v>160456.4418678772</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12034.19304942663</v>
+        <v>12034.19304942662</v>
       </c>
       <c r="C4" t="n">
         <v>12034.19304942662</v>
       </c>
       <c r="D4" t="n">
-        <v>18888.92742949787</v>
+        <v>12034.19304942663</v>
       </c>
       <c r="E4" t="n">
+        <v>10990.29103211612</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10990.29103211612</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10990.29103211612</v>
+      </c>
+      <c r="H4" t="n">
         <v>10990.29103211611</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10990.29103211609</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10990.29103211609</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10990.29103211609</v>
       </c>
       <c r="I4" t="n">
         <v>10990.29103211609</v>
@@ -26473,13 +26475,13 @@
         <v>56985.80041161357</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="G5" t="n">
         <v>74306.34056139328</v>
@@ -26491,7 +26493,7 @@
         <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
         <v>74306.34056139328</v>
@@ -26522,46 +26524,46 @@
         <v>-488957.3603631041</v>
       </c>
       <c r="C6" t="n">
-        <v>102399.5421577412</v>
+        <v>102399.5421577413</v>
       </c>
       <c r="D6" t="n">
-        <v>-210076.6540109561</v>
+        <v>102399.5421577413</v>
       </c>
       <c r="E6" t="n">
-        <v>-37380.13333804492</v>
+        <v>-388484.0312048022</v>
       </c>
       <c r="F6" t="n">
-        <v>238650.6124288651</v>
+        <v>238650.6124288649</v>
       </c>
       <c r="G6" t="n">
+        <v>238650.6124288648</v>
+      </c>
+      <c r="H6" t="n">
+        <v>238650.6124288648</v>
+      </c>
+      <c r="I6" t="n">
+        <v>238650.6124288648</v>
+      </c>
+      <c r="J6" t="n">
+        <v>189585.6677003204</v>
+      </c>
+      <c r="K6" t="n">
         <v>238650.6124288649</v>
       </c>
-      <c r="H6" t="n">
-        <v>238650.6124288652</v>
-      </c>
-      <c r="I6" t="n">
-        <v>238650.6124288652</v>
-      </c>
-      <c r="J6" t="n">
-        <v>189585.6677003203</v>
-      </c>
-      <c r="K6" t="n">
-        <v>238650.6124288651</v>
-      </c>
       <c r="L6" t="n">
-        <v>148907.2342975946</v>
+        <v>238650.612428865</v>
       </c>
       <c r="M6" t="n">
-        <v>166559.2598127791</v>
+        <v>78194.1705609878</v>
       </c>
       <c r="N6" t="n">
-        <v>238650.6124288651</v>
+        <v>238650.612428865</v>
       </c>
       <c r="O6" t="n">
-        <v>238650.6124288651</v>
+        <v>238650.612428865</v>
       </c>
       <c r="P6" t="n">
-        <v>238650.612428865</v>
+        <v>238650.6124288649</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26743,7 @@
         <v>548.4699409129046</v>
       </c>
       <c r="D3" t="n">
-        <v>853.710664537684</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022925</v>
@@ -26811,7 +26813,7 @@
         <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022925</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>305.2407236247794</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556141</v>
+        <v>541.3067596803933</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>354.5893695598434</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761294</v>
+        <v>643.8758682359725</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598437</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761291</v>
+        <v>643.8758682359721</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598434</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761294</v>
+        <v>643.8758682359725</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31148,7 +31150,7 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936712</v>
       </c>
       <c r="R3" t="n">
         <v>73.24660833550075</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840425</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934777</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662297</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928394</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699489</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206619</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095114</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616797</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730377</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152842</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884504</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475631</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053858</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057842</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017474</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001568</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368735</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282505</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420138</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153088</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978874</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R11" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,37 +31831,37 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J12" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
@@ -31868,7 +31870,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31917,16 +31919,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
         <v>300.7247737883114</v>
@@ -31935,19 +31937,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S13" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780294</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H15" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q16" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33260,7 +33262,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33734,7 +33736,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33913,10 +33915,10 @@
         <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781681</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356356</v>
       </c>
       <c r="S38" t="n">
         <v>99.83230779806951</v>
@@ -33992,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34135,7 +34137,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623184</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
         <v>769.2673490574995</v>
@@ -34211,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34378,7 +34380,7 @@
         <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095016</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
         <v>738.1512123099059</v>
@@ -34466,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34796,7 +34798,7 @@
         <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764971</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>75.41988959484675</v>
+        <v>92.63945645062401</v>
       </c>
       <c r="L4" t="n">
         <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>123.344572686378</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469472</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142394</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808905</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140553</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866205</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109601</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093947</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510194</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>535.13793587317</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>182.2511487495642</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.48193198348407</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>156.5898900231597</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>256.4684548971896</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M10" t="n">
-        <v>280.9040898900911</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N10" t="n">
-        <v>279.7143300212424</v>
+        <v>99.08507489005493</v>
       </c>
       <c r="O10" t="n">
-        <v>242.1833805735793</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P10" t="n">
-        <v>183.4714556748827</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.7482670934959</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597691</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37561,10 +37563,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037185</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222388</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37640,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,7 +37785,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923311</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37859,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38026,7 +38028,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129106</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
@@ -38114,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
